--- a/Code/Results/Cases/Case_9_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167612900492713</v>
+        <v>1.052921668454331</v>
       </c>
       <c r="C2">
-        <v>0.09348698543363554</v>
+        <v>0.1000387266705332</v>
       </c>
       <c r="D2">
-        <v>0.03186796248371593</v>
+        <v>0.03782652592210667</v>
       </c>
       <c r="E2">
-        <v>0.03359930321914639</v>
+        <v>0.03326544210001181</v>
       </c>
       <c r="F2">
-        <v>1.346630782024022</v>
+        <v>1.193672004589175</v>
       </c>
       <c r="G2">
-        <v>1.099721301344104</v>
+        <v>0.9497488874651339</v>
       </c>
       <c r="H2">
-        <v>0.02701252039696811</v>
+        <v>0.02207104447553077</v>
       </c>
       <c r="I2">
-        <v>0.03203792335562961</v>
+        <v>0.02375872926061273</v>
       </c>
       <c r="J2">
-        <v>0.7757119451420351</v>
+        <v>0.6846222928005545</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05826736867114235</v>
+        <v>0.2883258079041369</v>
       </c>
       <c r="M2">
-        <v>0.978400889469782</v>
+        <v>0.2640751087523903</v>
       </c>
       <c r="N2">
-        <v>0.1210893789955421</v>
+        <v>0.05410249865793926</v>
       </c>
       <c r="O2">
-        <v>0.2280264180621359</v>
+        <v>0.9587660241422498</v>
       </c>
       <c r="P2">
-        <v>1.541899437347325</v>
+        <v>0.1440890689856857</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2203932958724728</v>
+      </c>
+      <c r="R2">
+        <v>1.388206307892752</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.026420891979825</v>
+        <v>0.9268367562903563</v>
       </c>
       <c r="C3">
-        <v>0.08390612212319581</v>
+        <v>0.08696728145696397</v>
       </c>
       <c r="D3">
-        <v>0.02823550966163424</v>
+        <v>0.03349680966395852</v>
       </c>
       <c r="E3">
-        <v>0.03143884223158366</v>
+        <v>0.03136391716640752</v>
       </c>
       <c r="F3">
-        <v>1.296535118686407</v>
+        <v>1.156342239356746</v>
       </c>
       <c r="G3">
-        <v>1.057132794693359</v>
+        <v>0.9236498277638958</v>
       </c>
       <c r="H3">
-        <v>0.03183604735550083</v>
+        <v>0.02605260209771043</v>
       </c>
       <c r="I3">
-        <v>0.03745137594619319</v>
+        <v>0.02780673218643237</v>
       </c>
       <c r="J3">
-        <v>0.7601161216249182</v>
+        <v>0.6694731395382973</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05547753544536072</v>
+        <v>0.2891203542908549</v>
       </c>
       <c r="M3">
-        <v>0.8533917416725956</v>
+        <v>0.2568973267481951</v>
       </c>
       <c r="N3">
-        <v>0.1085117888029785</v>
+        <v>0.05184873618244623</v>
       </c>
       <c r="O3">
-        <v>0.2014262108257974</v>
+        <v>0.8367413878902994</v>
       </c>
       <c r="P3">
-        <v>1.570570468700922</v>
+        <v>0.1295119765161061</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1948096765696903</v>
+      </c>
+      <c r="R3">
+        <v>1.421325865700304</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9395437606236214</v>
+        <v>0.8489716125220355</v>
       </c>
       <c r="C4">
-        <v>0.07809864548850243</v>
+        <v>0.0790976418063849</v>
       </c>
       <c r="D4">
-        <v>0.02602407199373147</v>
+        <v>0.03086722037691203</v>
       </c>
       <c r="E4">
-        <v>0.03010168349095643</v>
+        <v>0.03018439154864261</v>
       </c>
       <c r="F4">
-        <v>1.266261455832343</v>
+        <v>1.133715140694065</v>
       </c>
       <c r="G4">
-        <v>1.031392941943082</v>
+        <v>0.9080330522561297</v>
       </c>
       <c r="H4">
-        <v>0.03511255611434771</v>
+        <v>0.02876075524497601</v>
       </c>
       <c r="I4">
-        <v>0.04115245322776584</v>
+        <v>0.03059340331344895</v>
       </c>
       <c r="J4">
-        <v>0.750822952166402</v>
+        <v>0.6601429017678981</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05372583235506845</v>
+        <v>0.2894607984638888</v>
       </c>
       <c r="M4">
-        <v>0.7767519977421102</v>
+        <v>0.2531884656553594</v>
       </c>
       <c r="N4">
-        <v>0.1008427584085467</v>
+        <v>0.05042709936962364</v>
       </c>
       <c r="O4">
-        <v>0.1850984503737365</v>
+        <v>0.761803343333213</v>
       </c>
       <c r="P4">
-        <v>1.588561161666753</v>
+        <v>0.1206462759443383</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.179082324912951</v>
+      </c>
+      <c r="R4">
+        <v>1.44206571455145</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9031694447215557</v>
+        <v>0.816276846471709</v>
       </c>
       <c r="C5">
-        <v>0.07591339980047707</v>
+        <v>0.07612513495750761</v>
       </c>
       <c r="D5">
-        <v>0.02516574501509439</v>
+        <v>0.02984224166872451</v>
       </c>
       <c r="E5">
-        <v>0.02954267594586213</v>
+        <v>0.0296901933326934</v>
       </c>
       <c r="F5">
-        <v>1.25307588796791</v>
+        <v>1.12369393192872</v>
       </c>
       <c r="G5">
-        <v>1.02002959381835</v>
+        <v>0.9009117791937342</v>
       </c>
       <c r="H5">
-        <v>0.03653503643505274</v>
+        <v>0.02993745441864781</v>
       </c>
       <c r="I5">
-        <v>0.04286082155958537</v>
+        <v>0.0319195176016196</v>
       </c>
       <c r="J5">
-        <v>0.7466087428709756</v>
+        <v>0.6558750097965174</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05297021487498377</v>
+        <v>0.2892610443505745</v>
       </c>
       <c r="M5">
-        <v>0.7453365487140218</v>
+        <v>0.2516513623535985</v>
       </c>
       <c r="N5">
-        <v>0.0978462908011295</v>
+        <v>0.04981203404318002</v>
       </c>
       <c r="O5">
-        <v>0.1783807393831438</v>
+        <v>0.7310595032244578</v>
       </c>
       <c r="P5">
-        <v>1.595271705982768</v>
+        <v>0.1171723862132481</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1726068951801629</v>
+      </c>
+      <c r="R5">
+        <v>1.450057028404672</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8960010049233631</v>
+        <v>0.8098026946619257</v>
       </c>
       <c r="C6">
-        <v>0.0757543468828743</v>
+        <v>0.07587719023075579</v>
       </c>
       <c r="D6">
-        <v>0.0250705786018699</v>
+        <v>0.02972107796365009</v>
       </c>
       <c r="E6">
-        <v>0.02943605970176932</v>
+        <v>0.02959535783800593</v>
       </c>
       <c r="F6">
-        <v>1.249714013041263</v>
+        <v>1.120971118572449</v>
       </c>
       <c r="G6">
-        <v>1.016961506763366</v>
+        <v>0.8986917429426597</v>
       </c>
       <c r="H6">
-        <v>0.03678857852061501</v>
+        <v>0.03014739032582281</v>
       </c>
       <c r="I6">
-        <v>0.04328911217373488</v>
+        <v>0.03229561257599922</v>
       </c>
       <c r="J6">
-        <v>0.7453071962166433</v>
+        <v>0.6546063000398163</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05280561029858966</v>
+        <v>0.2888583816351371</v>
       </c>
       <c r="M6">
-        <v>0.7398697743319076</v>
+        <v>0.2511612047440259</v>
       </c>
       <c r="N6">
-        <v>0.0974922035035064</v>
+        <v>0.04967781947797789</v>
       </c>
       <c r="O6">
-        <v>0.177186988752208</v>
+        <v>0.7257135844525635</v>
       </c>
       <c r="P6">
-        <v>1.595518979974077</v>
+        <v>0.116742507999696</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1714570250473066</v>
+      </c>
+      <c r="R6">
+        <v>1.450708625675574</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9359697201569759</v>
+        <v>0.8449081548397714</v>
       </c>
       <c r="C7">
-        <v>0.07862426296652103</v>
+        <v>0.07949629126044044</v>
       </c>
       <c r="D7">
-        <v>0.02614127728399751</v>
+        <v>0.03112883820125489</v>
       </c>
       <c r="E7">
-        <v>0.03005703860606523</v>
+        <v>0.03016713522759318</v>
       </c>
       <c r="F7">
-        <v>1.262864187846191</v>
+        <v>1.128995650272763</v>
       </c>
       <c r="G7">
-        <v>1.027998577645533</v>
+        <v>0.9082449638208203</v>
       </c>
       <c r="H7">
-        <v>0.03516489211607121</v>
+        <v>0.02881965722890656</v>
       </c>
       <c r="I7">
-        <v>0.04153599961821186</v>
+        <v>0.03102225166448846</v>
       </c>
       <c r="J7">
-        <v>0.7491133050389465</v>
+        <v>0.6524700792935647</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05361070303457538</v>
+        <v>0.2880365737653925</v>
       </c>
       <c r="M7">
-        <v>0.7756384905485731</v>
+        <v>0.2521719386407213</v>
       </c>
       <c r="N7">
-        <v>0.1011928967104367</v>
+        <v>0.05031580400580538</v>
       </c>
       <c r="O7">
-        <v>0.1847934685861112</v>
+        <v>0.7596231153467556</v>
       </c>
       <c r="P7">
-        <v>1.586285849546925</v>
+        <v>0.1209872657976092</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1786737191720853</v>
+      </c>
+      <c r="R7">
+        <v>1.439417454641323</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.114842648893472</v>
+        <v>1.003138878137179</v>
       </c>
       <c r="C8">
-        <v>0.09090872976290143</v>
+        <v>0.09562290161224496</v>
       </c>
       <c r="D8">
-        <v>0.0307827865536936</v>
+        <v>0.03698518328207001</v>
       </c>
       <c r="E8">
-        <v>0.03280742843375783</v>
+        <v>0.03264724069816083</v>
       </c>
       <c r="F8">
-        <v>1.325004058240225</v>
+        <v>1.171370778199517</v>
       </c>
       <c r="G8">
-        <v>1.080667706774065</v>
+        <v>0.9474784365305027</v>
       </c>
       <c r="H8">
-        <v>0.02864693662229967</v>
+        <v>0.02346230816441064</v>
       </c>
       <c r="I8">
-        <v>0.03425602762983182</v>
+        <v>0.02561527001456643</v>
       </c>
       <c r="J8">
-        <v>0.7680982881419425</v>
+        <v>0.6574763490673519</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.05717526170756138</v>
+        <v>0.2860651669310101</v>
       </c>
       <c r="M8">
-        <v>0.9343409757601364</v>
+        <v>0.2593858712608963</v>
       </c>
       <c r="N8">
-        <v>0.1172613652557217</v>
+        <v>0.05316665114934072</v>
       </c>
       <c r="O8">
-        <v>0.2185660377448073</v>
+        <v>0.9120937836626126</v>
       </c>
       <c r="P8">
-        <v>1.548658738642601</v>
+        <v>0.139541059657958</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2109084229513805</v>
+      </c>
+      <c r="R8">
+        <v>1.394346347587234</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.470003820760411</v>
+        <v>1.317981068861485</v>
       </c>
       <c r="C9">
-        <v>0.1147130541249908</v>
+        <v>0.1282355046214718</v>
       </c>
       <c r="D9">
-        <v>0.03981847351602852</v>
+        <v>0.04795359346276484</v>
       </c>
       <c r="E9">
-        <v>0.03819743080302906</v>
+        <v>0.03740124767425534</v>
       </c>
       <c r="F9">
-        <v>1.456765638471353</v>
+        <v>1.268283806147494</v>
       </c>
       <c r="G9">
-        <v>1.193294963324874</v>
+        <v>1.021474539794312</v>
       </c>
       <c r="H9">
-        <v>0.01842534437773991</v>
+        <v>0.01504015412959803</v>
       </c>
       <c r="I9">
-        <v>0.0225503301336536</v>
+        <v>0.01682754043992496</v>
       </c>
       <c r="J9">
-        <v>0.8106407488262874</v>
+        <v>0.6914912267109088</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06406761447193077</v>
+        <v>0.2842430991299807</v>
       </c>
       <c r="M9">
-        <v>1.248142177489569</v>
+        <v>0.2815712138264637</v>
       </c>
       <c r="N9">
-        <v>0.1485511869322735</v>
+        <v>0.05868832229939702</v>
       </c>
       <c r="O9">
-        <v>0.2852883158140571</v>
+        <v>1.216496646717758</v>
       </c>
       <c r="P9">
-        <v>1.482131942149984</v>
+        <v>0.1759738037701268</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2748166415121212</v>
+      </c>
+      <c r="R9">
+        <v>1.315684036662148</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.718891774903881</v>
+        <v>1.533331910258852</v>
       </c>
       <c r="C10">
-        <v>0.133937215253809</v>
+        <v>0.1528820760083249</v>
       </c>
       <c r="D10">
-        <v>0.04591676635588016</v>
+        <v>0.0562505084905851</v>
       </c>
       <c r="E10">
-        <v>0.0408689615147253</v>
+        <v>0.03980464114108351</v>
       </c>
       <c r="F10">
-        <v>1.537509028856491</v>
+        <v>1.315995690731484</v>
       </c>
       <c r="G10">
-        <v>1.261896969912883</v>
+        <v>1.083840827984417</v>
       </c>
       <c r="H10">
-        <v>0.01312418024605444</v>
+        <v>0.01077220336265583</v>
       </c>
       <c r="I10">
-        <v>0.01632772240594171</v>
+        <v>0.01235499839272247</v>
       </c>
       <c r="J10">
-        <v>0.835111434927498</v>
+        <v>0.6762914751427331</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.06756540692719071</v>
+        <v>0.2770266825022212</v>
       </c>
       <c r="M10">
-        <v>1.474712262429279</v>
+        <v>0.2956341867483729</v>
       </c>
       <c r="N10">
-        <v>0.1661184077817026</v>
+        <v>0.06148421119131697</v>
       </c>
       <c r="O10">
-        <v>0.3295693294902122</v>
+        <v>1.42910135042149</v>
       </c>
       <c r="P10">
-        <v>1.424868812656129</v>
+        <v>0.1967002166139054</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3163741724375555</v>
+      </c>
+      <c r="R10">
+        <v>1.249146273726513</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738034687364603</v>
+        <v>1.548252204280459</v>
       </c>
       <c r="C11">
-        <v>0.1516004607518369</v>
+        <v>0.1694289344872004</v>
       </c>
       <c r="D11">
-        <v>0.04268120096133998</v>
+        <v>0.05415568045027896</v>
       </c>
       <c r="E11">
-        <v>0.03291254951461564</v>
+        <v>0.0323881044871781</v>
       </c>
       <c r="F11">
-        <v>1.42115724992999</v>
+        <v>1.196705757730811</v>
       </c>
       <c r="G11">
-        <v>1.159736269989367</v>
+        <v>1.035390006701718</v>
       </c>
       <c r="H11">
-        <v>0.031424902961664</v>
+        <v>0.02926847598940441</v>
       </c>
       <c r="I11">
-        <v>0.0154722989097591</v>
+        <v>0.01206487843049597</v>
       </c>
       <c r="J11">
-        <v>0.7791952997645524</v>
+        <v>0.5702399696239979</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06157783058585758</v>
+        <v>0.2465465369501736</v>
       </c>
       <c r="M11">
-        <v>1.532600720164538</v>
+        <v>0.2712521561419052</v>
       </c>
       <c r="N11">
-        <v>0.1265361844780415</v>
+        <v>0.05831622487547206</v>
       </c>
       <c r="O11">
-        <v>0.3083044512843856</v>
+        <v>1.472939854658449</v>
       </c>
       <c r="P11">
-        <v>1.322758673469345</v>
+        <v>0.1525030143056867</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2944528297870335</v>
+      </c>
+      <c r="R11">
+        <v>1.169620590831897</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705491185228539</v>
+        <v>1.522020035925948</v>
       </c>
       <c r="C12">
-        <v>0.1621479359379805</v>
+        <v>0.1781451735516697</v>
       </c>
       <c r="D12">
-        <v>0.03857866508934649</v>
+        <v>0.04991597681581794</v>
       </c>
       <c r="E12">
-        <v>0.02800578208622451</v>
+        <v>0.02776525206645175</v>
       </c>
       <c r="F12">
-        <v>1.31387908116146</v>
+        <v>1.099796743089257</v>
       </c>
       <c r="G12">
-        <v>1.066835006387166</v>
+        <v>0.9741362582764594</v>
       </c>
       <c r="H12">
-        <v>0.07042733102083787</v>
+        <v>0.06827102263392248</v>
       </c>
       <c r="I12">
-        <v>0.01531536035763814</v>
+        <v>0.01197310417928765</v>
       </c>
       <c r="J12">
-        <v>0.7305596667346634</v>
+        <v>0.5122324863114471</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06195154221361676</v>
+        <v>0.2263088525043209</v>
       </c>
       <c r="M12">
-        <v>1.533691845747853</v>
+        <v>0.2508277192515962</v>
       </c>
       <c r="N12">
-        <v>0.0940901982716511</v>
+        <v>0.06102873559642674</v>
       </c>
       <c r="O12">
-        <v>0.2819964097746848</v>
+        <v>1.469363838059706</v>
       </c>
       <c r="P12">
-        <v>1.26142922796797</v>
+        <v>0.1157848599271958</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2686395814190448</v>
+      </c>
+      <c r="R12">
+        <v>1.131058959059454</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.626552723294708</v>
+        <v>1.460209466449413</v>
       </c>
       <c r="C13">
-        <v>0.1685878936833944</v>
+        <v>0.1831051271071118</v>
       </c>
       <c r="D13">
-        <v>0.03380293685442837</v>
+        <v>0.04377027981532677</v>
       </c>
       <c r="E13">
-        <v>0.02508580735278443</v>
+        <v>0.02503273809981721</v>
       </c>
       <c r="F13">
-        <v>1.202423183533156</v>
+        <v>1.012290503872826</v>
       </c>
       <c r="G13">
-        <v>0.9706305171684448</v>
+        <v>0.8885668963320086</v>
       </c>
       <c r="H13">
-        <v>0.1270755682310067</v>
+        <v>0.124742926386574</v>
       </c>
       <c r="I13">
-        <v>0.01613971533486769</v>
+        <v>0.01253866458540021</v>
       </c>
       <c r="J13">
-        <v>0.6820933122699699</v>
+        <v>0.4877908252988874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06692963064468316</v>
+        <v>0.2111484394676069</v>
       </c>
       <c r="M13">
-        <v>1.489903184433331</v>
+        <v>0.2318938764917391</v>
       </c>
       <c r="N13">
-        <v>0.06602667703808152</v>
+        <v>0.06806179617363384</v>
       </c>
       <c r="O13">
-        <v>0.2501343794457007</v>
+        <v>1.430925705742538</v>
       </c>
       <c r="P13">
-        <v>1.223562726265596</v>
+        <v>0.08356616996687194</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2383875239864892</v>
+      </c>
+      <c r="R13">
+        <v>1.116505451508341</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.549796534154126</v>
+        <v>1.400060417141106</v>
       </c>
       <c r="C14">
-        <v>0.1714827996637496</v>
+        <v>0.1851495538968635</v>
       </c>
       <c r="D14">
-        <v>0.03023999203816885</v>
+        <v>0.03880172744964483</v>
       </c>
       <c r="E14">
-        <v>0.02424854883877092</v>
+        <v>0.02433877649885674</v>
       </c>
       <c r="F14">
-        <v>1.122771096253302</v>
+        <v>0.9543864376070061</v>
       </c>
       <c r="G14">
-        <v>0.9019175113136981</v>
+        <v>0.8195536068870979</v>
       </c>
       <c r="H14">
-        <v>0.1773036247025033</v>
+        <v>0.1747629596330853</v>
       </c>
       <c r="I14">
-        <v>0.0172915847302475</v>
+        <v>0.01336702417202762</v>
       </c>
       <c r="J14">
-        <v>0.6482509056474157</v>
+        <v>0.4825820422362881</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07322101996708597</v>
+        <v>0.2023456400568655</v>
       </c>
       <c r="M14">
-        <v>1.438899531190913</v>
+        <v>0.2192838295709905</v>
       </c>
       <c r="N14">
-        <v>0.04931043975335925</v>
+        <v>0.07557877019645431</v>
       </c>
       <c r="O14">
-        <v>0.2255854670905109</v>
+        <v>1.387952711629254</v>
       </c>
       <c r="P14">
-        <v>1.208394875482039</v>
+        <v>0.06408170565332227</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2153810009052641</v>
+      </c>
+      <c r="R14">
+        <v>1.116372024461118</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.520319244934029</v>
+        <v>1.376737783557076</v>
       </c>
       <c r="C15">
-        <v>0.1715096607675548</v>
+        <v>0.185092443217556</v>
       </c>
       <c r="D15">
-        <v>0.02926198611613273</v>
+        <v>0.03729223422166683</v>
       </c>
       <c r="E15">
-        <v>0.02416353363109525</v>
+        <v>0.02430708471157139</v>
       </c>
       <c r="F15">
-        <v>1.101250175997066</v>
+        <v>0.9405018469980106</v>
       </c>
       <c r="G15">
-        <v>0.8832464192069409</v>
+        <v>0.7979680237810953</v>
       </c>
       <c r="H15">
-        <v>0.1902344760231074</v>
+        <v>0.1875940906847831</v>
       </c>
       <c r="I15">
-        <v>0.01795524989374542</v>
+        <v>0.01389437930412996</v>
       </c>
       <c r="J15">
-        <v>0.6394374069833759</v>
+        <v>0.4859608647747393</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07495666162470371</v>
+        <v>0.2006827344924069</v>
       </c>
       <c r="M15">
-        <v>1.416832772462215</v>
+        <v>0.2161690756180512</v>
       </c>
       <c r="N15">
-        <v>0.0455886882478822</v>
+        <v>0.07756618082948918</v>
       </c>
       <c r="O15">
-        <v>0.2183295939378098</v>
+        <v>1.369682129566201</v>
       </c>
       <c r="P15">
-        <v>1.208077718104276</v>
+        <v>0.0596920594082988</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2086891952296099</v>
+      </c>
+      <c r="R15">
+        <v>1.119527352248033</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.429238639334841</v>
+        <v>1.303296722666488</v>
       </c>
       <c r="C16">
-        <v>0.1619634538454022</v>
+        <v>0.1761168147294399</v>
       </c>
       <c r="D16">
-        <v>0.02780717455405579</v>
+        <v>0.03416669189620336</v>
       </c>
       <c r="E16">
-        <v>0.02365567157439608</v>
+        <v>0.02393389033778437</v>
       </c>
       <c r="F16">
-        <v>1.088603728592005</v>
+        <v>0.9476798777618924</v>
       </c>
       <c r="G16">
-        <v>0.8724193628137726</v>
+        <v>0.7639033309931023</v>
       </c>
       <c r="H16">
-        <v>0.1797179897200607</v>
+        <v>0.1765901309887141</v>
       </c>
       <c r="I16">
-        <v>0.02056148801873103</v>
+        <v>0.01577384790348724</v>
       </c>
       <c r="J16">
-        <v>0.6380927340188691</v>
+        <v>0.5305748305329985</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07220329433782524</v>
+        <v>0.2066918384110963</v>
       </c>
       <c r="M16">
-        <v>1.328411375054969</v>
+        <v>0.2171143511380045</v>
       </c>
       <c r="N16">
-        <v>0.0447042003036664</v>
+        <v>0.0745318048447281</v>
       </c>
       <c r="O16">
-        <v>0.2065312864300779</v>
+        <v>1.296471245145625</v>
       </c>
       <c r="P16">
-        <v>1.237208463584611</v>
+        <v>0.05860710950504</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1985307970367067</v>
+      </c>
+      <c r="R16">
+        <v>1.147250145835138</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.399876721559735</v>
+        <v>1.27756026185989</v>
       </c>
       <c r="C17">
-        <v>0.1531411930750863</v>
+        <v>0.1677016882436391</v>
       </c>
       <c r="D17">
-        <v>0.02855681168720281</v>
+        <v>0.03449198394834241</v>
       </c>
       <c r="E17">
-        <v>0.02349283088831483</v>
+        <v>0.02372888511625959</v>
       </c>
       <c r="F17">
-        <v>1.120649799551259</v>
+        <v>0.9824032844251391</v>
       </c>
       <c r="G17">
-        <v>0.9001147039942481</v>
+        <v>0.7769775060315851</v>
       </c>
       <c r="H17">
-        <v>0.1432043999408563</v>
+        <v>0.1398166629179229</v>
       </c>
       <c r="I17">
-        <v>0.02200266765221937</v>
+        <v>0.01683709590138172</v>
       </c>
       <c r="J17">
-        <v>0.6548524440582497</v>
+        <v>0.5647663830095837</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.06625439950112266</v>
+        <v>0.2161247988167503</v>
       </c>
       <c r="M17">
-        <v>1.287740065334503</v>
+        <v>0.2239520027393347</v>
       </c>
       <c r="N17">
-        <v>0.052323520952541</v>
+        <v>0.06779722312416681</v>
       </c>
       <c r="O17">
-        <v>0.2102944700632001</v>
+        <v>1.261405871119621</v>
       </c>
       <c r="P17">
-        <v>1.267172170194629</v>
+        <v>0.06746328151346859</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2026462303636798</v>
+      </c>
+      <c r="R17">
+        <v>1.169804809546969</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.422476720996173</v>
+        <v>1.293865226106618</v>
       </c>
       <c r="C18">
-        <v>0.143576662657992</v>
+        <v>0.1588495822921914</v>
       </c>
       <c r="D18">
-        <v>0.03127957905693535</v>
+        <v>0.03750913468987704</v>
       </c>
       <c r="E18">
-        <v>0.02475549706168456</v>
+        <v>0.02476656965185531</v>
       </c>
       <c r="F18">
-        <v>1.198950849494366</v>
+        <v>1.051496575110647</v>
       </c>
       <c r="G18">
-        <v>0.9680910109301806</v>
+        <v>0.8283426287174791</v>
       </c>
       <c r="H18">
-        <v>0.09063538350325473</v>
+        <v>0.08719570999065951</v>
       </c>
       <c r="I18">
-        <v>0.02209620343904906</v>
+        <v>0.01679312967499325</v>
       </c>
       <c r="J18">
-        <v>0.6910134792645266</v>
+        <v>0.6035112973306269</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05972218975160715</v>
+        <v>0.231344573089828</v>
       </c>
       <c r="M18">
-        <v>1.283614356401586</v>
+        <v>0.2380502421679154</v>
       </c>
       <c r="N18">
-        <v>0.0706581587880919</v>
+        <v>0.0598357510061085</v>
       </c>
       <c r="O18">
-        <v>0.2285012752204238</v>
+        <v>1.257983780992618</v>
       </c>
       <c r="P18">
-        <v>1.306937685664806</v>
+        <v>0.08856400245191764</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2203644771019881</v>
+      </c>
+      <c r="R18">
+        <v>1.195267500679972</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.479650994420126</v>
+        <v>1.338293991351719</v>
       </c>
       <c r="C19">
-        <v>0.1357978179282782</v>
+        <v>0.1522442242099089</v>
       </c>
       <c r="D19">
-        <v>0.03575938645103349</v>
+        <v>0.04277647329231371</v>
       </c>
       <c r="E19">
-        <v>0.02874806015013487</v>
+        <v>0.02838365532187836</v>
       </c>
       <c r="F19">
-        <v>1.307321589686836</v>
+        <v>1.142743203026072</v>
       </c>
       <c r="G19">
-        <v>1.061695952425325</v>
+        <v>0.9024130939962021</v>
       </c>
       <c r="H19">
-        <v>0.04448636788730909</v>
+        <v>0.04119547079553598</v>
       </c>
       <c r="I19">
-        <v>0.02168810404825461</v>
+        <v>0.01656309062280403</v>
       </c>
       <c r="J19">
-        <v>0.7390324220299789</v>
+        <v>0.6454937541457895</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.05748412253387869</v>
+        <v>0.2499001949055497</v>
       </c>
       <c r="M19">
-        <v>1.307597648247878</v>
+        <v>0.2566911490511821</v>
       </c>
       <c r="N19">
-        <v>0.1009292418943843</v>
+        <v>0.0555639524783107</v>
       </c>
       <c r="O19">
-        <v>0.2575649162466576</v>
+        <v>1.279827333933781</v>
       </c>
       <c r="P19">
-        <v>1.35643456260901</v>
+        <v>0.1229432840964861</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2483624966545719</v>
+      </c>
+      <c r="R19">
+        <v>1.225305951917788</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.643240506941623</v>
+        <v>1.470467742162697</v>
       </c>
       <c r="C20">
-        <v>0.1306923901472032</v>
+        <v>0.1494861346397158</v>
       </c>
       <c r="D20">
-        <v>0.04468550848944375</v>
+        <v>0.05391684245095973</v>
       </c>
       <c r="E20">
-        <v>0.04000171486914894</v>
+        <v>0.0389337578145259</v>
       </c>
       <c r="F20">
-        <v>1.505455152212093</v>
+        <v>1.299926964885358</v>
       </c>
       <c r="G20">
-        <v>1.233074871414544</v>
+        <v>1.046404153267545</v>
       </c>
       <c r="H20">
-        <v>0.01445209423742622</v>
+        <v>0.01181068680974784</v>
       </c>
       <c r="I20">
-        <v>0.01882244380314191</v>
+        <v>0.01452354204810558</v>
       </c>
       <c r="J20">
-        <v>0.8232016426870388</v>
+        <v>0.6961497883356316</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.06628495032479087</v>
+        <v>0.2776391826153066</v>
       </c>
       <c r="M20">
-        <v>1.412638249743082</v>
+        <v>0.2904101363640095</v>
       </c>
       <c r="N20">
-        <v>0.1624642108213337</v>
+        <v>0.06052902280170702</v>
       </c>
       <c r="O20">
-        <v>0.3170460163947482</v>
+        <v>1.375028223183421</v>
       </c>
       <c r="P20">
-        <v>1.432696249480919</v>
+        <v>0.1922623395130003</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.30506177137066</v>
+      </c>
+      <c r="R20">
+        <v>1.264222206444185</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.85198087698231</v>
+        <v>1.63405269355394</v>
       </c>
       <c r="C21">
-        <v>0.1440291491299064</v>
+        <v>0.1625293089218758</v>
       </c>
       <c r="D21">
-        <v>0.05045423803822047</v>
+        <v>0.06457192058262962</v>
       </c>
       <c r="E21">
-        <v>0.04400781012344446</v>
+        <v>0.04312733081711073</v>
       </c>
       <c r="F21">
-        <v>1.597672875834348</v>
+        <v>1.33018347940326</v>
       </c>
       <c r="G21">
-        <v>1.3123041342742</v>
+        <v>1.180059829186106</v>
       </c>
       <c r="H21">
-        <v>0.01028195288741552</v>
+        <v>0.00850509828789256</v>
       </c>
       <c r="I21">
-        <v>0.01431100002824692</v>
+        <v>0.01137854914220071</v>
       </c>
       <c r="J21">
-        <v>0.8554483723445685</v>
+        <v>0.5947313491052739</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.07112731230876612</v>
+        <v>0.2707929204983266</v>
       </c>
       <c r="M21">
-        <v>1.595348956497645</v>
+        <v>0.3002439564723716</v>
       </c>
       <c r="N21">
-        <v>0.1851225187449117</v>
+        <v>0.06394754765026889</v>
       </c>
       <c r="O21">
-        <v>0.3586530794652845</v>
+        <v>1.524028527690973</v>
       </c>
       <c r="P21">
-        <v>1.405592445712209</v>
+        <v>0.2182675185186582</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3418636155527608</v>
+      </c>
+      <c r="R21">
+        <v>1.210647828692487</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.987491324336645</v>
+        <v>1.738825822111892</v>
       </c>
       <c r="C22">
-        <v>0.152589217734814</v>
+        <v>0.1703753307448608</v>
       </c>
       <c r="D22">
-        <v>0.05371133632659308</v>
+        <v>0.07132089228558414</v>
       </c>
       <c r="E22">
-        <v>0.04604169891867294</v>
+        <v>0.04538440346903805</v>
       </c>
       <c r="F22">
-        <v>1.653891930234678</v>
+        <v>1.343897294850478</v>
       </c>
       <c r="G22">
-        <v>1.361169786372784</v>
+        <v>1.274742833578088</v>
       </c>
       <c r="H22">
-        <v>0.008129935465613941</v>
+        <v>0.006810148973900254</v>
       </c>
       <c r="I22">
-        <v>0.01148707240583313</v>
+        <v>0.00924139582576089</v>
       </c>
       <c r="J22">
-        <v>0.8751113829985968</v>
+        <v>0.5295528522426309</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.07371395260768843</v>
+        <v>0.2654486433009602</v>
       </c>
       <c r="M22">
-        <v>1.713625458965026</v>
+        <v>0.3059416919909239</v>
       </c>
       <c r="N22">
-        <v>0.1964410508989829</v>
+        <v>0.06575580501556288</v>
       </c>
       <c r="O22">
-        <v>0.383766361543131</v>
+        <v>1.618055209156182</v>
       </c>
       <c r="P22">
-        <v>1.386253231573143</v>
+        <v>0.2314057318259017</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3636381257802199</v>
+      </c>
+      <c r="R22">
+        <v>1.174451183893176</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.918930492789514</v>
+        <v>1.688522874688061</v>
       </c>
       <c r="C23">
-        <v>0.1473144408897724</v>
+        <v>0.1659763656433313</v>
       </c>
       <c r="D23">
-        <v>0.05181406827923496</v>
+        <v>0.06710621508040049</v>
       </c>
       <c r="E23">
-        <v>0.04499928145204812</v>
+        <v>0.04414310467518767</v>
       </c>
       <c r="F23">
-        <v>1.627574385409233</v>
+        <v>1.344126474357239</v>
       </c>
       <c r="G23">
-        <v>1.338812731387804</v>
+        <v>1.217822151366107</v>
       </c>
       <c r="H23">
-        <v>0.009226423415233748</v>
+        <v>0.007660998520251372</v>
       </c>
       <c r="I23">
-        <v>0.01258343352431357</v>
+        <v>0.00991039917006642</v>
       </c>
       <c r="J23">
-        <v>0.8664909435282198</v>
+        <v>0.5769482261365653</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.07245497840684756</v>
+        <v>0.269967886619682</v>
       </c>
       <c r="M23">
-        <v>1.651321304991427</v>
+        <v>0.3048676844669558</v>
       </c>
       <c r="N23">
-        <v>0.1899149824509152</v>
+        <v>0.06491773592178518</v>
       </c>
       <c r="O23">
-        <v>0.3706206748533489</v>
+        <v>1.571770664762795</v>
       </c>
       <c r="P23">
-        <v>1.399018840157368</v>
+        <v>0.2239192395857117</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3525955720697738</v>
+      </c>
+      <c r="R23">
+        <v>1.197043809560967</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.65360406116767</v>
+        <v>1.479191472328438</v>
       </c>
       <c r="C24">
-        <v>0.1287555748802447</v>
+        <v>0.1473548083313858</v>
       </c>
       <c r="D24">
-        <v>0.04493167444199031</v>
+        <v>0.05421671274931583</v>
       </c>
       <c r="E24">
-        <v>0.04099150631135018</v>
+        <v>0.03986642860406064</v>
       </c>
       <c r="F24">
-        <v>1.523539798674975</v>
+        <v>1.315598299130215</v>
       </c>
       <c r="G24">
-        <v>1.249588220096427</v>
+        <v>1.059540426129033</v>
       </c>
       <c r="H24">
-        <v>0.01415042626219121</v>
+        <v>0.01153221018634154</v>
       </c>
       <c r="I24">
-        <v>0.01817886134426239</v>
+        <v>0.01380089378978866</v>
       </c>
       <c r="J24">
-        <v>0.8316430222340756</v>
+        <v>0.7042329251360258</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.06747360038956174</v>
+        <v>0.2813630613013061</v>
       </c>
       <c r="M24">
-        <v>1.414951267048224</v>
+        <v>0.2940933268469053</v>
       </c>
       <c r="N24">
-        <v>0.1661336077142934</v>
+        <v>0.06139438626573934</v>
       </c>
       <c r="O24">
-        <v>0.3205558079898267</v>
+        <v>1.377241771305023</v>
       </c>
       <c r="P24">
-        <v>1.444450145895175</v>
+        <v>0.1964120289458009</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3084478684501093</v>
+      </c>
+      <c r="R24">
+        <v>1.272324956590897</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.36831229865038</v>
+        <v>1.22908016172596</v>
       </c>
       <c r="C25">
-        <v>0.1092115572548309</v>
+        <v>0.1208554905534527</v>
       </c>
       <c r="D25">
-        <v>0.0375903422028685</v>
+        <v>0.04499549212000176</v>
       </c>
       <c r="E25">
-        <v>0.03667784256960438</v>
+        <v>0.03602634828698292</v>
       </c>
       <c r="F25">
-        <v>1.414844368470455</v>
+        <v>1.239012580297796</v>
       </c>
       <c r="G25">
-        <v>1.156572029579024</v>
+        <v>0.9913900483142442</v>
       </c>
       <c r="H25">
-        <v>0.02093658953932176</v>
+        <v>0.01709196307518268</v>
       </c>
       <c r="I25">
-        <v>0.02594241220782401</v>
+        <v>0.01955291760129896</v>
       </c>
       <c r="J25">
-        <v>0.7959056175159844</v>
+        <v>0.6881431480652793</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06204352994173234</v>
+        <v>0.2838920389656252</v>
       </c>
       <c r="M25">
-        <v>1.161754199239454</v>
+        <v>0.27405247488268</v>
       </c>
       <c r="N25">
-        <v>0.1407450140556747</v>
+        <v>0.05709926021940159</v>
       </c>
       <c r="O25">
-        <v>0.266819387181652</v>
+        <v>1.134467004496059</v>
       </c>
       <c r="P25">
-        <v>1.495767435867705</v>
+        <v>0.1667878029297398</v>
       </c>
       <c r="Q25">
+        <v>0.2573276482022493</v>
+      </c>
+      <c r="R25">
+        <v>1.334868852899799</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
